--- a/1h_NL_bus_input_V2.xlsx
+++ b/1h_NL_bus_input_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDCBE6-C127-4CE7-A406-013BF24F074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79466EC5-E284-4B14-A05A-7988C0419C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -725,17 +725,17 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -751,62 +751,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -821,16 +821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94CD40-7FC0-47C6-AA2A-34706E0CB1A0}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -847,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -966,7 +966,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1099,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="14">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -1269,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -1587,18 +1587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8C86F-438E-4DA1-8BEB-F41FA669B78F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="175" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>32</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>33</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>34</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>35</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>36</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>37</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>38</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>39</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>40</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -2387,14 +2387,14 @@
       <selection activeCell="B26" sqref="B26:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0.40249999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.40249999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3157,18 +3157,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="50" width="6.54296875" customWidth="1"/>
+    <col min="7" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="50" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="Z1" s="1"/>
       <c r="AJ1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-0.8012904033887005</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>-2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3791,19 +3791,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3977,9 +3977,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4094,7 +4094,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4104,7 +4104,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -4114,7 +4114,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4124,7 +4124,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4134,7 +4134,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4144,7 +4144,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -4154,7 +4154,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4164,7 +4164,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4174,7 +4174,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4184,7 +4184,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4194,7 +4194,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4204,7 +4204,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -4214,7 +4214,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4224,7 +4224,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4234,7 +4234,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4244,7 +4244,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4254,7 +4254,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4264,7 +4264,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -4274,7 +4274,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -4284,7 +4284,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -4294,7 +4294,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4304,7 +4304,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4314,7 +4314,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -4324,7 +4324,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4334,7 +4334,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4344,7 +4344,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4354,7 +4354,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4364,7 +4364,7 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4374,7 +4374,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4384,7 +4384,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4394,7 +4394,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4404,7 +4404,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4414,7 +4414,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4424,7 +4424,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4434,7 +4434,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4444,7 +4444,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4454,7 +4454,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4464,7 +4464,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4474,7 +4474,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4484,7 +4484,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4494,7 +4494,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4504,7 +4504,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4514,7 +4514,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4524,7 +4524,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4534,7 +4534,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4544,7 +4544,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4554,7 +4554,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4564,7 +4564,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4574,7 +4574,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4584,7 +4584,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4594,7 +4594,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4604,7 +4604,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4614,7 +4614,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4624,7 +4624,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4634,7 +4634,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4644,7 +4644,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4654,7 +4654,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4664,7 +4664,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4674,7 +4674,7 @@
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4684,7 +4684,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4694,7 +4694,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4704,7 +4704,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4714,7 +4714,7 @@
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4724,7 +4724,7 @@
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4734,7 +4734,7 @@
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4744,7 +4744,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4754,7 +4754,7 @@
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4764,7 +4764,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -4774,7 +4774,7 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -4784,7 +4784,7 @@
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -4794,7 +4794,7 @@
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4804,7 +4804,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4814,7 +4814,7 @@
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4824,7 +4824,7 @@
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -4834,7 +4834,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -4844,7 +4844,7 @@
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -4854,7 +4854,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -4864,7 +4864,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -4874,7 +4874,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -4884,7 +4884,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -4894,7 +4894,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -4904,7 +4904,7 @@
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -4914,7 +4914,7 @@
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -4924,7 +4924,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -4934,7 +4934,7 @@
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -4944,7 +4944,7 @@
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -4954,7 +4954,7 @@
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -4964,7 +4964,7 @@
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -4974,7 +4974,7 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -4984,7 +4984,7 @@
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -4994,7 +4994,7 @@
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -5004,7 +5004,7 @@
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -5014,7 +5014,7 @@
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -5024,7 +5024,7 @@
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -5034,7 +5034,7 @@
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -5044,7 +5044,7 @@
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -5054,7 +5054,7 @@
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -5064,7 +5064,7 @@
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
     </row>
-    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -5074,7 +5074,7 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -5084,7 +5084,7 @@
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -5094,7 +5094,7 @@
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -5104,7 +5104,7 @@
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -5114,7 +5114,7 @@
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -5124,7 +5124,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -5134,7 +5134,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -5144,7 +5144,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -5154,7 +5154,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -5164,7 +5164,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -5174,7 +5174,7 @@
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -5184,7 +5184,7 @@
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -5194,7 +5194,7 @@
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -5204,7 +5204,7 @@
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -5214,7 +5214,7 @@
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -5224,7 +5224,7 @@
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -5234,7 +5234,7 @@
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -5244,7 +5244,7 @@
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -5254,7 +5254,7 @@
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
     </row>
   </sheetData>
@@ -5270,20 +5270,20 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5322,14 +5322,14 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>-15.084000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5485,13 +5485,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M5">
         <f>SUM(loads!C2:J23)</f>
         <v>84.11999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5544,12 +5544,12 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -5602,12 +5602,12 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="Z20" s="16">
         <v>0.6</v>
       </c>
@@ -5633,17 +5633,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>9999</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>-0.27999999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>9999</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>9999</v>
       </c>
@@ -5778,12 +5778,12 @@
         <v>-5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>9999</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>9999</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>9999</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>-2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>9999</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>9999</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>9999</v>
       </c>
@@ -6013,12 +6013,12 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>9999</v>
       </c>
@@ -6055,12 +6055,12 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>9999</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>9999</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>0.6</v>
       </c>
@@ -6155,132 +6155,132 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>0.27500000000000002</v>
       </c>

--- a/1h_NL_bus_input_V2.xlsx
+++ b/1h_NL_bus_input_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79466EC5-E284-4B14-A05A-7988C0419C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064E0AA-1BE4-49A5-83BD-A198878DB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <t>Can add manually industry sell orders against high price (using less TYPE = Industry)</t>
   </si>
   <si>
-    <t>2 or more critical lines per pocket, also higher congestion, should also have problems not solvable by just RD</t>
+    <t>lots of ciritical lines</t>
   </si>
 </sst>
 </file>
@@ -725,17 +725,17 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -751,62 +751,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -821,16 +821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94CD40-7FC0-47C6-AA2A-34706E0CB1A0}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -847,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -966,7 +966,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1099,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -1269,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="14">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -1587,18 +1587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8C86F-438E-4DA1-8BEB-F41FA669B78F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H46"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -1892,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H18" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -1909,13 +1909,13 @@
         <v>9999</v>
       </c>
       <c r="F19" s="14">
-        <v>9999</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -2045,13 +2045,13 @@
         <v>0.4</v>
       </c>
       <c r="F27" s="14">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H27" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -2164,13 +2164,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F34" s="14">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H34" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>32</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>33</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>34</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>35</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>36</v>
       </c>
@@ -2266,13 +2266,13 @@
         <v>9999</v>
       </c>
       <c r="F40" s="14">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="H40" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>37</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>38</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>39</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>40</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -2351,13 +2351,13 @@
         <v>9999</v>
       </c>
       <c r="F45" s="14">
-        <v>9999</v>
+        <v>0.9</v>
       </c>
       <c r="H45" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -2387,14 +2387,14 @@
       <selection activeCell="B26" sqref="B26:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0.40249999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.40249999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.86249999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3157,18 +3157,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="50" width="6.5703125" customWidth="1"/>
+    <col min="7" max="26" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="50" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="Z1" s="1"/>
       <c r="AJ1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-0.8012904033887005</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>-2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3791,19 +3791,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3977,9 +3977,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4094,7 +4094,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4104,7 +4104,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -4114,7 +4114,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4124,7 +4124,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4134,7 +4134,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4144,7 +4144,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -4154,7 +4154,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4164,7 +4164,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4174,7 +4174,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4184,7 +4184,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4194,7 +4194,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4204,7 +4204,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -4214,7 +4214,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4224,7 +4224,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4234,7 +4234,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4244,7 +4244,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4254,7 +4254,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4264,7 +4264,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -4274,7 +4274,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -4284,7 +4284,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -4294,7 +4294,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4304,7 +4304,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4314,7 +4314,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -4324,7 +4324,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4334,7 +4334,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4344,7 +4344,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4354,7 +4354,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4364,7 +4364,7 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4374,7 +4374,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4384,7 +4384,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4394,7 +4394,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4404,7 +4404,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4414,7 +4414,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4424,7 +4424,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4434,7 +4434,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4444,7 +4444,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4454,7 +4454,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4464,7 +4464,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4474,7 +4474,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4484,7 +4484,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4494,7 +4494,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4504,7 +4504,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4514,7 +4514,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4524,7 +4524,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4534,7 +4534,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4544,7 +4544,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4554,7 +4554,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4564,7 +4564,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4574,7 +4574,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4584,7 +4584,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4594,7 +4594,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4604,7 +4604,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4614,7 +4614,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4624,7 +4624,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4634,7 +4634,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4644,7 +4644,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4654,7 +4654,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4664,7 +4664,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4674,7 +4674,7 @@
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4684,7 +4684,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -4694,7 +4694,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -4704,7 +4704,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -4714,7 +4714,7 @@
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -4724,7 +4724,7 @@
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -4734,7 +4734,7 @@
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -4744,7 +4744,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4754,7 +4754,7 @@
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -4764,7 +4764,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -4774,7 +4774,7 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -4784,7 +4784,7 @@
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -4794,7 +4794,7 @@
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4804,7 +4804,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4814,7 +4814,7 @@
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4824,7 +4824,7 @@
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -4834,7 +4834,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -4844,7 +4844,7 @@
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -4854,7 +4854,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -4864,7 +4864,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -4874,7 +4874,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -4884,7 +4884,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -4894,7 +4894,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -4904,7 +4904,7 @@
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -4914,7 +4914,7 @@
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -4924,7 +4924,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -4934,7 +4934,7 @@
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -4944,7 +4944,7 @@
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -4954,7 +4954,7 @@
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -4964,7 +4964,7 @@
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -4974,7 +4974,7 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -4984,7 +4984,7 @@
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -4994,7 +4994,7 @@
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -5004,7 +5004,7 @@
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -5014,7 +5014,7 @@
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -5024,7 +5024,7 @@
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -5034,7 +5034,7 @@
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -5044,7 +5044,7 @@
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -5054,7 +5054,7 @@
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -5064,7 +5064,7 @@
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -5074,7 +5074,7 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -5084,7 +5084,7 @@
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -5094,7 +5094,7 @@
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -5104,7 +5104,7 @@
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -5114,7 +5114,7 @@
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -5124,7 +5124,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -5134,7 +5134,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -5144,7 +5144,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -5154,7 +5154,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -5164,7 +5164,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -5174,7 +5174,7 @@
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -5184,7 +5184,7 @@
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -5194,7 +5194,7 @@
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -5204,7 +5204,7 @@
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -5214,7 +5214,7 @@
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -5224,7 +5224,7 @@
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -5234,7 +5234,7 @@
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -5244,7 +5244,7 @@
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -5254,7 +5254,7 @@
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
     </row>
   </sheetData>
@@ -5270,20 +5270,20 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5322,14 +5322,14 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>-15.084000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5485,13 +5485,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M5">
         <f>SUM(loads!C2:J23)</f>
         <v>84.11999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5544,12 +5544,12 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -5602,12 +5602,12 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Z20" s="16">
         <v>0.6</v>
       </c>
@@ -5633,17 +5633,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>9999</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>-0.27999999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>9999</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>9999</v>
       </c>
@@ -5778,12 +5778,12 @@
         <v>-5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>9999</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>9999</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>9999</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>-2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>9999</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>9999</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>9999</v>
       </c>
@@ -6013,12 +6013,12 @@
         <v>-6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>9999</v>
       </c>
@@ -6055,12 +6055,12 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>9999</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>9999</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>0.6</v>
       </c>
@@ -6155,132 +6155,132 @@
         <v>-3.19999968E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>0.27500000000000002</v>
       </c>

--- a/1h_NL_bus_input_V2.xlsx
+++ b/1h_NL_bus_input_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064E0AA-1BE4-49A5-83BD-A198878DB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B2BBE-EA57-4E71-8620-E27CA1599659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -721,13 +721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64FA4D4-96EF-411F-9568-177C13F4F889}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94CD40-7FC0-47C6-AA2A-34706E0CB1A0}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E44"/>
     </sheetView>
   </sheetViews>
